--- a/codes/test_shell_output/testPRON_New.xlsx
+++ b/codes/test_shell_output/testPRON_New.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>1 &amp; +ا &amp; 0</t>
+  </si>
+  <si>
+    <t>1 &amp; +ان &amp; 0</t>
+  </si>
   <si>
     <t>1 &amp; +ت &amp; 0</t>
   </si>
   <si>
     <t>1 &amp; +ك &amp; 0</t>
+  </si>
+  <si>
+    <t>1 &amp; +كم &amp; 0</t>
+  </si>
+  <si>
+    <t>1 &amp; +كن &amp; 0</t>
   </si>
   <si>
     <t>1 &amp; +نا &amp; 0</t>
@@ -34,16 +46,28 @@
     <t>1 &amp; +هم &amp; 0</t>
   </si>
   <si>
-    <t>1 &amp; +وا &amp; 0</t>
+    <t>1 &amp; +هما &amp; 0</t>
   </si>
   <si>
-    <t>1 &amp; أنت &amp; 0</t>
+    <t>1 &amp; +ون &amp; 0</t>
+  </si>
+  <si>
+    <t>1 &amp; +ي &amp; 0</t>
+  </si>
+  <si>
+    <t>1 &amp; أنا &amp; 0</t>
+  </si>
+  <si>
+    <t>1 &amp; تلك &amp; 0</t>
   </si>
   <si>
     <t>1 &amp; ذلك &amp; 0</t>
   </si>
   <si>
-    <t>1 &amp; هؤلاء &amp; 0</t>
+    <t>1 &amp; نحن &amp; 0</t>
+  </si>
+  <si>
+    <t>1 &amp; هاتان &amp; 0</t>
   </si>
   <si>
     <t>1 &amp; هذا &amp; 0</t>
@@ -52,7 +76,13 @@
     <t>1 &amp; هذه &amp; 0</t>
   </si>
   <si>
+    <t>1 &amp; هما &amp; 0</t>
+  </si>
+  <si>
     <t>1 &amp; هو &amp; 0</t>
+  </si>
+  <si>
+    <t>1 &amp; هي &amp; 0</t>
   </si>
 </sst>
 </file>
@@ -414,7 +444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:CW53"/>
+  <dimension ref="B2:CW93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -427,314 +457,314 @@
     </row>
     <row r="3" spans="2:101">
       <c r="B3" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:101">
       <c r="B4" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="5" spans="2:101">
       <c r="B5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="C5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="D5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="E5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="F5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="G5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="H5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="I5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="J5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="K5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="L5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="M5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="N5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="O5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="P5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="Q5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="R5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="S5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="T5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="U5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="V5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="W5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="X5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="Y5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="Z5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AA5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AB5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AC5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AD5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AE5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AF5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AG5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AH5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AI5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AJ5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AK5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AL5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AM5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AN5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AO5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AP5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AQ5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AR5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AS5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AT5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AU5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AV5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AW5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AX5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AY5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="AZ5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BA5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BB5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BC5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BD5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BE5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BF5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BG5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BH5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BI5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BJ5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BK5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BL5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BM5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BN5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BO5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BP5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BQ5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BR5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BS5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BT5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BU5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BV5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BW5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BX5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BY5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="BZ5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CA5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CB5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CC5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CD5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CE5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CF5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CG5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CH5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CI5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CJ5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CK5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CL5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CM5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CN5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CO5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CP5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CQ5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CR5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CS5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CT5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CU5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CV5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
       <c r="CW5" s="2">
-        <v>8.860759493670885</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="6" spans="2:101">
@@ -749,309 +779,309 @@
     </row>
     <row r="8" spans="2:101">
       <c r="B8" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="9" spans="2:101">
       <c r="B9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="C9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="D9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="E9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="F9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="G9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="H9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="I9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="J9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="K9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="L9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="M9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="N9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="O9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="P9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="Q9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="R9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="S9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="T9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="U9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="V9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="W9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="X9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="Y9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="Z9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AA9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AB9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AC9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AD9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AE9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AF9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AG9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AH9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AI9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AJ9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AK9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AL9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AM9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AN9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AO9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AP9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AQ9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AR9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AS9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AT9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AU9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AV9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AW9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AX9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AY9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="AZ9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BA9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BB9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BC9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BD9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BE9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BF9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BG9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BH9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BI9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BJ9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BK9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BL9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BM9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BN9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BO9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BP9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BQ9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BR9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BS9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BT9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BU9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BV9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BW9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BX9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BY9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="BZ9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CA9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CB9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CC9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CD9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CE9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CF9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CG9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CH9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CI9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CJ9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CK9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CL9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CM9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CN9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CO9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CP9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CQ9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CR9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CS9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CT9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CU9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CV9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
       <c r="CW9" s="2">
-        <v>2.531645569620253</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="10" spans="2:101">
@@ -1061,314 +1091,314 @@
     </row>
     <row r="11" spans="2:101">
       <c r="B11" s="2">
-        <v>1</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="2:101">
       <c r="B12" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
     </row>
     <row r="13" spans="2:101">
       <c r="B13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="C13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="D13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="E13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="F13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="G13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="H13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="I13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="J13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="K13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="L13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="M13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="N13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="O13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="P13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="Q13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="R13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="S13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="T13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="U13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="V13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="W13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="X13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="Y13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="Z13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AA13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AB13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AC13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AD13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AE13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AF13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AG13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AH13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AI13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AJ13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AK13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AL13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AM13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AN13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AO13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AP13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AQ13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AR13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AS13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AT13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AU13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AV13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AW13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AX13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AY13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="AZ13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BA13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BB13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BC13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BD13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BE13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BF13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BG13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BH13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BI13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BJ13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BK13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BL13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BM13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BN13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BO13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BP13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BQ13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BR13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BS13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BT13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BU13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BV13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BW13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BX13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BY13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="BZ13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CA13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CB13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CC13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CD13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CE13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CF13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CG13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CH13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CI13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CJ13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CK13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CL13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CM13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CN13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CO13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CP13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CQ13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CR13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CS13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CT13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CU13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CV13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
       <c r="CW13" s="2">
-        <v>1.265822784810127</v>
+        <v>21.5625</v>
       </c>
     </row>
     <row r="14" spans="2:101">
@@ -1378,314 +1408,314 @@
     </row>
     <row r="15" spans="2:101">
       <c r="B15" s="2">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:101">
       <c r="B16" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="17" spans="2:101">
       <c r="B17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="C17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="D17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="E17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="F17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="G17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="H17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="I17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="J17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="K17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="L17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="M17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="N17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="O17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="P17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="Q17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="R17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="S17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="T17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="U17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="V17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="W17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="X17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="Y17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="Z17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AA17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AB17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AC17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AD17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AE17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AF17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AG17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AH17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AI17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AJ17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AK17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AL17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AM17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AN17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AO17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AP17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AQ17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AR17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AS17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AT17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AU17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AV17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AW17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AX17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AY17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="AZ17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BA17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BB17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BC17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BD17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BE17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BF17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BG17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BH17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BI17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BJ17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BK17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BL17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BM17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BN17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BO17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BP17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BQ17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BR17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BS17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BT17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BU17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BV17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BW17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BX17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BY17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="BZ17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CA17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CB17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CC17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CD17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CE17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CF17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CG17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CH17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CI17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CJ17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CK17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CL17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CM17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CN17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CO17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CP17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CQ17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CR17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CS17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CT17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CU17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CV17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
       <c r="CW17" s="2">
-        <v>44.30379746835443</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="18" spans="2:101">
@@ -1695,314 +1725,314 @@
     </row>
     <row r="19" spans="2:101">
       <c r="B19" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:101">
       <c r="B20" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="21" spans="2:101">
       <c r="B21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="C21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="D21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="E21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="F21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="G21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="H21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="I21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="J21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="K21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="L21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="M21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="N21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="O21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="P21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="Q21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="R21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="S21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="T21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="U21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="V21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="W21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="X21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="Y21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="Z21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AA21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AB21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AC21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AD21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AE21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AF21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AG21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AH21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AI21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AJ21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AK21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AL21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AM21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AN21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AO21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AP21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AQ21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AR21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AS21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AT21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AU21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AV21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AW21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AX21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AY21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="AZ21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BA21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BB21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BC21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BD21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BE21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BF21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BG21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BH21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BI21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BJ21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BK21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BL21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BM21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BN21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BO21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BP21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BQ21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BR21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BS21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BT21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BU21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BV21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BW21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BX21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BY21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="BZ21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CA21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CB21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CC21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CD21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CE21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CF21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CG21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CH21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CI21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CJ21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CK21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CL21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CM21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CN21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CO21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CP21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CQ21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CR21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CS21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CT21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CU21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CV21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
       <c r="CW21" s="2">
-        <v>5.063291139240507</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="22" spans="2:101">
@@ -2012,314 +2042,314 @@
     </row>
     <row r="23" spans="2:101">
       <c r="B23" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:101">
       <c r="B24" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="25" spans="2:101">
       <c r="B25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="C25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="D25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="E25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="F25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="G25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="H25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="I25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="J25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="K25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="L25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="M25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="N25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="O25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="P25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="Q25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="R25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="S25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="T25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="U25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="V25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="W25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="X25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="Y25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="Z25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AA25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AB25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AC25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AD25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AE25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AF25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AG25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AH25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AI25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AJ25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AK25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AL25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AM25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AN25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AO25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AP25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AQ25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AR25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AS25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AT25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AU25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AV25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AW25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AX25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AY25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="AZ25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BA25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BB25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BC25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BD25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BE25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BF25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BG25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BH25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BI25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BJ25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BK25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BL25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BM25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BN25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BO25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BP25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BQ25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BR25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BS25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BT25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BU25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BV25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BW25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BX25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BY25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="BZ25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CA25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CB25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CC25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CD25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CE25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CF25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CG25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CH25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CI25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CJ25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CK25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CL25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CM25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CN25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CO25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CP25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CQ25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CR25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CS25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CT25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CU25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CV25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
       <c r="CW25" s="2">
-        <v>13.92405063291139</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="26" spans="2:101">
@@ -2329,314 +2359,314 @@
     </row>
     <row r="27" spans="2:101">
       <c r="B27" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="2:101">
       <c r="B28" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="29" spans="2:101">
       <c r="B29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="C29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="D29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="E29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="F29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="G29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="H29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="I29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="J29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="K29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="L29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="M29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="N29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="O29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="P29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="Q29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="R29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="S29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="T29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="U29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="V29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="W29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="X29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="Y29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="Z29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AA29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AB29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AC29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AD29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AE29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AF29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AG29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AH29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AI29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AJ29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AK29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AL29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AM29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AN29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AO29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AP29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AQ29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AR29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AS29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AT29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AU29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AV29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AW29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AX29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AY29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="AZ29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BA29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BB29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BC29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BD29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BE29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BF29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BG29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BH29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BI29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BJ29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BK29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BL29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BM29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BN29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BO29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BP29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BQ29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BR29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BS29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BT29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BU29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BV29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BW29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BX29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BY29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="BZ29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CA29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CB29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CC29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CD29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CE29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CF29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CG29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CH29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CI29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CJ29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CK29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CL29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CM29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CN29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CO29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CP29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CQ29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CR29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CS29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CT29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CU29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CV29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
       <c r="CW29" s="2">
-        <v>5.063291139240507</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="30" spans="2:101">
@@ -2646,314 +2676,314 @@
     </row>
     <row r="31" spans="2:101">
       <c r="B31" s="2">
-        <v>1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="2:101">
       <c r="B32" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
     </row>
     <row r="33" spans="2:101">
       <c r="B33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="C33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="D33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="E33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="F33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="G33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="H33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="I33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="J33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="K33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="L33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="M33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="N33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="O33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="P33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="Q33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="R33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="S33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="T33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="U33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="V33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="W33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="X33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="Y33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="Z33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AA33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AB33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AC33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AD33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AE33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AF33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AG33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AH33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AI33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AJ33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AK33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AL33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AM33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AN33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AO33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AP33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AQ33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AR33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AS33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AT33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AU33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AV33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AW33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AX33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AY33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="AZ33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BA33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BB33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BC33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BD33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BE33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BF33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BG33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BH33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BI33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BJ33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BK33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BL33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BM33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BN33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BO33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BP33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BQ33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BR33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BS33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BT33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BU33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BV33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BW33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BX33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BY33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="BZ33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CA33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CB33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CC33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CD33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CE33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CF33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CG33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CH33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CI33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CJ33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CK33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CL33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CM33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CN33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CO33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CP33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CQ33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CR33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CS33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CT33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CU33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CV33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
       <c r="CW33" s="2">
-        <v>1.265822784810127</v>
+        <v>26.5625</v>
       </c>
     </row>
     <row r="34" spans="2:101">
@@ -2963,314 +2993,314 @@
     </row>
     <row r="35" spans="2:101">
       <c r="B35" s="2">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="2:101">
       <c r="B36" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
     </row>
     <row r="37" spans="2:101">
       <c r="B37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="C37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="D37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="E37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="F37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="G37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="H37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="I37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="J37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="K37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="L37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="M37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="N37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="O37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="P37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="Q37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="R37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="S37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="T37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="U37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="V37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="W37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="X37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="Y37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="Z37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AA37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AB37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AC37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AD37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AE37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AF37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AG37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AH37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AI37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AJ37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AK37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AL37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AM37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AN37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AO37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AP37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AQ37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AR37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AS37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AT37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AU37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AV37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AW37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AX37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AY37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="AZ37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BA37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BB37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BC37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BD37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BE37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BF37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BG37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BH37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BI37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BJ37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BK37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BL37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BM37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BN37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BO37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BP37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BQ37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BR37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BS37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BT37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BU37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BV37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BW37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BX37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BY37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="BZ37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CA37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CB37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CC37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CD37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CE37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CF37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CG37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CH37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CI37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CJ37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CK37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CL37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CM37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CN37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CO37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CP37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CQ37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CR37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CS37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CT37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CU37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CV37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
       <c r="CW37" s="2">
-        <v>1.265822784810127</v>
+        <v>12.1875</v>
       </c>
     </row>
     <row r="38" spans="2:101">
@@ -3280,314 +3310,314 @@
     </row>
     <row r="39" spans="2:101">
       <c r="B39" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="2:101">
       <c r="B40" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="41" spans="2:101">
       <c r="B41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="C41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="D41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="E41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="F41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="G41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="H41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="I41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="J41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="K41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="L41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="M41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="N41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="O41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="P41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="Q41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="R41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="S41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="T41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="U41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="V41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="W41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="X41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="Y41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="Z41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AA41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AB41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AC41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AD41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AE41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AF41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AG41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AH41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AI41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AJ41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AK41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AL41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AM41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AN41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AO41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AP41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AQ41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AR41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AS41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AT41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AU41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AV41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AW41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AX41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AY41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="AZ41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BA41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BB41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BC41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BD41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BE41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BF41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BG41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BH41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BI41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BJ41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BK41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BL41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BM41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BN41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BO41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BP41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BQ41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BR41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BS41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BT41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BU41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BV41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BW41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BX41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BY41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="BZ41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CA41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CB41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CC41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CD41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CE41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CF41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CG41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CH41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CI41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CJ41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CK41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CL41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CM41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CN41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CO41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CP41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CQ41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CR41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CS41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CT41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CU41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CV41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
       <c r="CW41" s="2">
-        <v>2.531645569620253</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="42" spans="2:101">
@@ -3597,314 +3627,314 @@
     </row>
     <row r="43" spans="2:101">
       <c r="B43" s="2">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="2:101">
       <c r="B44" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
     </row>
     <row r="45" spans="2:101">
       <c r="B45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="C45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="D45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="E45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="F45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="G45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="H45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="I45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="J45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="K45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="L45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="M45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="N45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="O45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="P45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="Q45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="R45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="S45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="T45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="U45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="V45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="W45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="X45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="Y45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="Z45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AA45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AB45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AC45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AD45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AE45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AF45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AG45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AH45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AI45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AJ45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AK45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AL45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AM45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AN45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AO45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AP45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AQ45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AR45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AS45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AT45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AU45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AV45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AW45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AX45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AY45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="AZ45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BA45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BB45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BC45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BD45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BE45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BF45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BG45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BH45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BI45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BJ45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BK45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BL45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BM45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BN45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BO45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BP45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BQ45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BR45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BS45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BT45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BU45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BV45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BW45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BX45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BY45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="BZ45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CA45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CB45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CC45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CD45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CE45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CF45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CG45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CH45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CI45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CJ45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CK45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CL45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CM45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CN45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CO45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CP45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CQ45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CR45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CS45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CT45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CU45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CV45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
       <c r="CW45" s="2">
-        <v>3.79746835443038</v>
+        <v>7.1875</v>
       </c>
     </row>
     <row r="46" spans="2:101">
@@ -3914,314 +3944,314 @@
     </row>
     <row r="47" spans="2:101">
       <c r="B47" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="2:101">
       <c r="B48" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="49" spans="2:101">
       <c r="B49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="C49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="D49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="E49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="F49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="G49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="H49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="I49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="J49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="K49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="L49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="M49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="N49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="O49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="P49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="Q49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="R49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="S49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="T49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="U49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="V49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="W49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="X49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="Y49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="Z49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AA49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AB49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AC49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AD49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AE49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AF49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AG49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AH49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AI49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AJ49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AK49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AL49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AM49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AN49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AO49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AP49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AQ49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AR49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AS49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AT49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AU49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AV49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AW49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AX49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AY49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="AZ49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BA49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BB49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BC49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BD49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BE49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BF49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BG49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BH49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BI49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BJ49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BK49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BL49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BM49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BN49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BO49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BP49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BQ49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BR49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BS49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BT49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BU49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BV49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BW49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BX49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BY49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="BZ49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CA49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CB49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CC49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CD49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CE49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CF49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CG49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CH49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CI49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CJ49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CK49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CL49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CM49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CN49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CO49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CP49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CQ49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CR49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CS49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CT49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CU49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CV49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
       <c r="CW49" s="2">
-        <v>1.265822784810127</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="50" spans="2:101">
@@ -4231,314 +4261,3484 @@
     </row>
     <row r="51" spans="2:101">
       <c r="B51" s="2">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="2:101">
       <c r="B52" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
     </row>
     <row r="53" spans="2:101">
       <c r="B53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="C53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="D53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="E53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="F53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="G53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="H53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="I53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="J53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="K53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="L53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="M53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="N53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="O53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="P53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="Q53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="R53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="S53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="T53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="U53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="V53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="W53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="X53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="Y53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="Z53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AA53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AB53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AC53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AD53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AE53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AF53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AG53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AH53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AI53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AJ53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AK53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AL53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AM53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AN53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AO53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AP53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AQ53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AR53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AS53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AT53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AU53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AV53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AW53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AX53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AY53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="AZ53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BA53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BB53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BC53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BD53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BE53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BF53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BG53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BH53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BI53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BJ53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BK53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BL53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BM53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BN53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BO53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BP53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BQ53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BR53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BS53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BT53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BU53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BV53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BW53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BX53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BY53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="BZ53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CA53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CB53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CC53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CD53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CE53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CF53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CG53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CH53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CI53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CJ53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CK53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CL53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CM53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CN53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CO53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CP53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CQ53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CR53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CS53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CT53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CU53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CV53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
       </c>
       <c r="CW53" s="2">
-        <v>8.860759493670885</v>
+        <v>11.875</v>
+      </c>
+    </row>
+    <row r="54" spans="2:101">
+      <c r="B54" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="2:101">
+      <c r="B55" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="2:101">
+      <c r="B56" s="2">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="57" spans="2:101">
+      <c r="B57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="C57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="D57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="E57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="F57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="G57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="H57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="I57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="J57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="K57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="L57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="M57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="N57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="O57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="P57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="R57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="S57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="T57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="U57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="V57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="W57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="X57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="Y57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="Z57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="AA57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="AB57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="AC57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="AD57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="AE57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="AF57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="AG57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="AH57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="AI57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="AJ57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="AK57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="AL57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="AM57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="AN57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="AO57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="AP57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="AQ57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="AR57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="AS57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="AT57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="AU57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="AV57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="AW57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="AX57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="AY57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="AZ57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="BA57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="BB57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="BC57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="BD57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="BE57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="BF57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="BG57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="BH57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="BI57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="BJ57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="BK57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="BL57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="BM57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="BN57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="BO57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="BP57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="BQ57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="BR57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="BS57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="BT57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="BU57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="BV57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="BW57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="BX57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="BY57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="BZ57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="CA57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="CB57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="CC57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="CD57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="CE57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="CF57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="CG57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="CH57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="CI57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="CJ57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="CK57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="CL57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="CM57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="CN57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="CO57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="CP57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="CQ57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="CR57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="CS57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="CT57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="CU57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="CV57" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="CW57" s="2">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="58" spans="2:101">
+      <c r="B58" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="2:101">
+      <c r="B59" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:101">
+      <c r="B60" s="2">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="61" spans="2:101">
+      <c r="B61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="J61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="K61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="L61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="M61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="N61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="O61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="P61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="R61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="S61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="T61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="U61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="V61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="W61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="X61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="Y61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="Z61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AA61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AB61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AC61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AD61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AE61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AF61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AG61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AH61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AI61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AJ61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AK61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AL61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AM61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AN61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AO61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AP61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AQ61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AR61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AS61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AT61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AU61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AV61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AW61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AX61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AY61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AZ61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BA61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BB61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BC61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BD61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BE61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BF61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BG61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BH61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BI61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BJ61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BK61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BL61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BM61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BN61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BO61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BP61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BQ61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BR61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BS61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BT61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BU61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BV61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BW61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BX61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BY61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BZ61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CA61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CB61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CC61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CD61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CE61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CF61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CG61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CH61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CI61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CJ61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CK61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CL61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CM61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CN61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CO61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CP61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CQ61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CR61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CS61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CT61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CU61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CV61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CW61" s="2">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="62" spans="2:101">
+      <c r="B62" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="2:101">
+      <c r="B63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:101">
+      <c r="B64" s="2">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="65" spans="2:101">
+      <c r="B65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="G65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="I65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="J65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="K65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="L65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="M65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="N65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="O65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="P65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="R65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="S65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="T65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="U65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="V65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="W65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="X65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="Y65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="Z65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AA65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AB65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AC65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AD65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AE65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AF65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AG65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AH65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AI65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AJ65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AK65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AL65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AM65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AN65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AO65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AP65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AQ65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AR65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AS65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AT65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AU65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AV65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AW65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AX65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AY65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AZ65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BA65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BB65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BC65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BD65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BE65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BF65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BG65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BH65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BI65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BJ65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BK65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BL65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BM65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BN65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BO65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BP65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BQ65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BR65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BS65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BT65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BU65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BV65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BW65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BX65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BY65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BZ65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CA65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CB65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CC65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CD65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CE65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CF65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CG65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CH65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CI65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CJ65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CK65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CL65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CM65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CN65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CO65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CP65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CQ65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CR65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CS65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CT65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CU65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CV65" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CW65" s="2">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="66" spans="2:101">
+      <c r="B66" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:101">
+      <c r="B67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:101">
+      <c r="B68" s="2">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="69" spans="2:101">
+      <c r="B69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="D69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="F69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="I69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="J69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="K69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="L69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="M69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="N69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="O69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="P69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="R69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="S69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="T69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="U69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="V69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="W69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="X69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="Y69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="Z69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AA69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AB69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AC69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AD69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AE69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AF69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AG69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AH69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AI69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AJ69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AK69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AL69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AM69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AN69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AO69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AP69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AQ69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AR69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AS69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AT69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AU69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AV69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AW69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AX69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AY69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AZ69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BA69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BB69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BC69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BD69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BE69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BF69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BG69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BH69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BI69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BJ69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BK69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BL69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BM69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BN69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BO69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BP69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BQ69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BR69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BS69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BT69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BU69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BV69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BW69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BX69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BY69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BZ69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CA69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CB69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CC69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CD69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CE69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CF69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CG69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CH69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CI69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CJ69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CK69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CL69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CM69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CN69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CO69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CP69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CQ69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CR69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CS69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CT69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CU69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CV69" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CW69" s="2">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="70" spans="2:101">
+      <c r="B70" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="2:101">
+      <c r="B71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:101">
+      <c r="B72" s="2">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="73" spans="2:101">
+      <c r="B73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="C73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="E73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="F73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="G73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="H73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="I73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="J73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="K73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="L73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="M73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="N73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="O73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="P73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="R73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="S73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="T73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="U73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="V73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="W73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="X73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="Y73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="Z73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AA73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AB73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AC73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AD73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AE73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AF73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AG73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AH73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AI73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AJ73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AK73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AL73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AM73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AN73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AO73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AP73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AQ73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AR73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AS73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AT73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AU73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AV73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AW73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AX73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AY73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="AZ73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BA73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BB73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BC73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BD73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BE73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BF73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BG73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BH73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BI73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BJ73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BK73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BL73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BM73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BN73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BO73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BP73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BQ73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BR73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BS73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BT73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BU73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BV73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BW73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BX73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BY73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="BZ73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CA73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CB73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CC73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CD73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CE73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CF73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CG73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CH73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CI73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CJ73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CK73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CL73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CM73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CN73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CO73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CP73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CQ73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CR73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CS73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CT73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CU73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CV73" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="CW73" s="2">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="74" spans="2:101">
+      <c r="B74" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="2:101">
+      <c r="B75" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="2:101">
+      <c r="B76" s="2">
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="77" spans="2:101">
+      <c r="B77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="C77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="D77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="E77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="F77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="G77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="H77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="I77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="J77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="K77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="L77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="M77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="N77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="O77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="P77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="Q77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="R77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="S77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="T77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="U77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="V77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="W77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="X77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="Y77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="Z77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AA77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AB77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AC77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AD77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AE77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AF77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AG77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AH77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AI77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AJ77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AK77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AL77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AM77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AN77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AO77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AP77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AQ77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AR77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AS77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AT77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AU77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AV77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AW77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AX77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AY77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AZ77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BA77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BB77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BC77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BD77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BE77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BF77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BG77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BH77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BI77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BJ77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BK77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BL77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BM77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BN77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BO77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BP77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BQ77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BR77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BS77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BT77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BU77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BV77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BW77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BX77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BY77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BZ77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CA77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CB77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CC77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CD77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CE77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CF77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CG77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CH77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CI77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CJ77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CK77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CL77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CM77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CN77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CO77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CP77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CQ77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CR77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CS77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CT77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CU77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CV77" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CW77" s="2">
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="78" spans="2:101">
+      <c r="B78" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="2:101">
+      <c r="B79" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:101">
+      <c r="B80" s="2">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="81" spans="2:101">
+      <c r="B81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="F81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="G81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="H81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="I81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="J81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="K81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="L81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="M81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="N81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="O81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="P81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="Q81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="R81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="S81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="T81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="U81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="V81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="W81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="X81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="Y81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="Z81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AA81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AB81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AC81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AD81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AE81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AF81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AG81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AH81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AI81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AJ81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AK81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AL81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AM81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AN81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AO81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AP81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AQ81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AR81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AS81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AT81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AU81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AV81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AW81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AX81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AY81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AZ81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BA81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BB81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BC81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BD81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BE81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BF81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BG81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BH81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BI81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BJ81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BK81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BL81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BM81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BN81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BO81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BP81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BQ81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BR81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BS81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BT81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BU81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BV81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BW81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BX81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BY81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="BZ81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CA81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CB81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CC81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CD81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CE81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CF81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CG81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CH81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CI81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CJ81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CK81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CL81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CM81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CN81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CO81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CP81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CQ81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CR81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CS81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CT81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CU81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CV81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="CW81" s="2">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="82" spans="2:101">
+      <c r="B82" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="2:101">
+      <c r="B83" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="2:101">
+      <c r="B84" s="2">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="85" spans="2:101">
+      <c r="B85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="E85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="F85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="G85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="H85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="I85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="J85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="K85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="L85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="M85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="N85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="O85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="P85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="Q85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="R85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="S85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="T85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="U85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="V85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="W85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="X85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="Y85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="Z85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="AA85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="AB85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="AC85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="AD85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="AE85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="AF85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="AG85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="AH85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="AI85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="AJ85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="AK85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="AL85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="AM85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="AN85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="AO85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="AP85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="AQ85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="AR85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="AS85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="AT85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="AU85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="AV85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="AW85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="AX85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="AY85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="AZ85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="BA85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="BB85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="BC85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="BD85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="BE85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="BF85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="BG85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="BH85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="BI85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="BJ85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="BK85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="BL85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="BM85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="BN85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="BO85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="BP85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="BQ85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="BR85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="BS85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="BT85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="BU85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="BV85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="BW85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="BX85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="BY85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="BZ85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="CA85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="CB85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="CC85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="CD85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="CE85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="CF85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="CG85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="CH85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="CI85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="CJ85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="CK85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="CL85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="CM85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="CN85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="CO85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="CP85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="CQ85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="CR85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="CS85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="CT85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="CU85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="CV85" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="CW85" s="2">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="86" spans="2:101">
+      <c r="B86" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="2:101">
+      <c r="B87" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="2:101">
+      <c r="B88" s="2">
+        <v>2.1875</v>
+      </c>
+    </row>
+    <row r="89" spans="2:101">
+      <c r="B89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="C89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="D89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="E89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="F89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="G89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="H89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="I89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="J89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="K89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="L89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="M89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="N89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="O89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="P89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="Q89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="R89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="S89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="T89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="U89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="V89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="W89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="X89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="Y89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="Z89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="AA89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="AB89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="AC89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="AD89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="AE89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="AF89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="AG89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="AH89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="AI89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="AJ89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="AK89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="AL89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="AM89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="AN89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="AO89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="AP89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="AQ89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="AR89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="AS89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="AT89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="AU89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="AV89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="AW89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="AX89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="AY89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="AZ89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="BA89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="BB89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="BC89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="BD89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="BE89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="BF89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="BG89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="BH89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="BI89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="BJ89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="BK89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="BL89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="BM89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="BN89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="BO89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="BP89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="BQ89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="BR89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="BS89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="BT89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="BU89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="BV89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="BW89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="BX89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="BY89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="BZ89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="CA89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="CB89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="CC89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="CD89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="CE89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="CF89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="CG89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="CH89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="CI89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="CJ89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="CK89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="CL89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="CM89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="CN89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="CO89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="CP89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="CQ89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="CR89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="CS89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="CT89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="CU89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="CV89" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="CW89" s="2">
+        <v>2.1875</v>
+      </c>
+    </row>
+    <row r="90" spans="2:101">
+      <c r="B90" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="2:101">
+      <c r="B91" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="2:101">
+      <c r="B92" s="2">
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="93" spans="2:101">
+      <c r="B93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="C93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="D93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="E93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="F93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="G93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="H93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="I93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="J93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="K93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="L93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="M93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="N93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="O93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="P93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="Q93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="R93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="S93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="T93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="U93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="V93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="W93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="X93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="Y93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="Z93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AA93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AB93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AC93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AD93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AE93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AF93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AG93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AH93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AI93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AJ93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AK93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AL93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AM93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AN93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AO93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AP93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AQ93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AR93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AS93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AT93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AU93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AV93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AW93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AX93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AY93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="AZ93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BA93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BB93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BC93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BD93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BE93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BF93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BG93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BH93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BI93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BJ93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BK93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BL93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BM93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BN93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BO93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BP93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BQ93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BR93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BS93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BT93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BU93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BV93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BW93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BX93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BY93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="BZ93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CA93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CB93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CC93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CD93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CE93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CF93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CG93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CH93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CI93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CJ93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CK93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CL93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CM93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CN93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CO93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CP93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CQ93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CR93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CS93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CT93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CU93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CV93" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="CW93" s="2">
+        <v>1.875</v>
       </c>
     </row>
   </sheetData>

--- a/codes/test_shell_output/testPRON_New.xlsx
+++ b/codes/test_shell_output/testPRON_New.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>1 &amp; +ا &amp; 0</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>1 &amp; +كم &amp; 0</t>
-  </si>
-  <si>
-    <t>1 &amp; +كن &amp; 0</t>
   </si>
   <si>
     <t>1 &amp; +نا &amp; 0</t>
@@ -49,13 +46,13 @@
     <t>1 &amp; +هما &amp; 0</t>
   </si>
   <si>
+    <t>1 &amp; +وا &amp; 0</t>
+  </si>
+  <si>
     <t>1 &amp; +ون &amp; 0</t>
   </si>
   <si>
     <t>1 &amp; +ي &amp; 0</t>
-  </si>
-  <si>
-    <t>1 &amp; أنا &amp; 0</t>
   </si>
   <si>
     <t>1 &amp; تلك &amp; 0</t>
@@ -64,19 +61,13 @@
     <t>1 &amp; ذلك &amp; 0</t>
   </si>
   <si>
-    <t>1 &amp; نحن &amp; 0</t>
-  </si>
-  <si>
-    <t>1 &amp; هاتان &amp; 0</t>
-  </si>
-  <si>
     <t>1 &amp; هذا &amp; 0</t>
   </si>
   <si>
     <t>1 &amp; هذه &amp; 0</t>
   </si>
   <si>
-    <t>1 &amp; هما &amp; 0</t>
+    <t>1 &amp; هم &amp; 0</t>
   </si>
   <si>
     <t>1 &amp; هو &amp; 0</t>
@@ -444,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:CW93"/>
+  <dimension ref="B2:CW81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -457,314 +448,314 @@
     </row>
     <row r="3" spans="2:101">
       <c r="B3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:101">
       <c r="B4" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
     </row>
     <row r="5" spans="2:101">
       <c r="B5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="D5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="E5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="F5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="G5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="H5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="I5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="J5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="K5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="M5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="N5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="O5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="P5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="Q5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="R5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="S5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="T5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="U5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="V5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="W5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="X5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="Y5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="Z5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AA5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AB5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AC5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AD5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AE5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AF5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AG5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AH5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AI5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AJ5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AK5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AL5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AM5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AN5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AO5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AP5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AQ5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AR5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AS5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AT5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AU5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AV5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AW5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AX5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AY5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AZ5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BA5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BB5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BC5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BD5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BE5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BF5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BG5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BH5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BI5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BJ5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BK5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BL5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BM5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BN5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BO5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BP5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BQ5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BR5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BS5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BT5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BU5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BV5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BW5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BX5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BY5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BZ5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CA5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CB5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CC5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CD5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CE5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CF5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CG5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CH5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CI5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CJ5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CK5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CL5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CM5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CN5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CO5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CP5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CQ5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CR5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CS5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CT5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CU5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CV5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CW5" s="2">
-        <v>0.625</v>
+        <v>0.3389830508474576</v>
       </c>
     </row>
     <row r="6" spans="2:101">
@@ -779,309 +770,309 @@
     </row>
     <row r="8" spans="2:101">
       <c r="B8" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
     </row>
     <row r="9" spans="2:101">
       <c r="B9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="C9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="D9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="E9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="F9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="G9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="H9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="I9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="J9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="K9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="L9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="M9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="N9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="O9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="P9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="Q9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="R9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="S9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="T9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="U9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="V9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="W9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="X9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="Y9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="Z9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AA9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AB9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AC9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AD9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AE9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AF9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AG9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AH9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AI9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AJ9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AK9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AL9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AM9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AN9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AO9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AP9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AQ9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AR9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AS9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AT9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AU9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AV9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AW9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AX9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AY9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="AZ9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BA9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BB9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BC9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BD9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BE9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BF9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BG9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BH9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BI9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BJ9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BK9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BL9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BM9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BN9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BO9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BP9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BQ9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BR9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BS9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BT9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BU9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BV9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BW9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BX9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BY9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="BZ9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CA9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CB9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CC9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CD9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CE9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CF9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CG9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CH9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CI9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CJ9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CK9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CL9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CM9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CN9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CO9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CP9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CQ9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CR9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CS9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CT9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CU9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CV9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="CW9" s="2">
-        <v>0.625</v>
+        <v>0.6779661016949152</v>
       </c>
     </row>
     <row r="10" spans="2:101">
@@ -1091,314 +1082,314 @@
     </row>
     <row r="11" spans="2:101">
       <c r="B11" s="2">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:101">
       <c r="B12" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
     </row>
     <row r="13" spans="2:101">
       <c r="B13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="C13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="D13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="E13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="F13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="G13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="H13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="I13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="J13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="K13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="L13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="M13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="N13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="O13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="P13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="Q13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="R13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="S13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="T13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="U13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="V13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="W13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="X13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="Y13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="Z13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AA13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AB13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AC13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AD13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AE13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AF13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AG13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AH13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AI13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AJ13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AK13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AL13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AM13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AN13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AO13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AP13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AQ13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AR13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AS13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AT13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AU13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AV13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AW13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AX13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AY13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="AZ13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BA13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BB13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BC13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BD13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BE13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BF13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BG13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BH13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BI13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BJ13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BK13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BL13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BM13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BN13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BO13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BP13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BQ13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BR13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BS13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BT13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BU13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BV13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BW13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BX13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BY13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="BZ13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CA13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CB13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CC13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CD13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CE13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CF13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CG13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CH13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CI13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CJ13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CK13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CL13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CM13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CN13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CO13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CP13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CQ13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CR13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CS13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CT13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CU13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CV13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="CW13" s="2">
-        <v>21.5625</v>
+        <v>6.779661016949152</v>
       </c>
     </row>
     <row r="14" spans="2:101">
@@ -1408,314 +1399,314 @@
     </row>
     <row r="15" spans="2:101">
       <c r="B15" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:101">
       <c r="B16" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
     </row>
     <row r="17" spans="2:101">
       <c r="B17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="D17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="E17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="F17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="G17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="H17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="I17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="J17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="K17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="M17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="N17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="O17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="P17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="Q17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="R17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="S17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="T17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="U17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="V17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="W17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="X17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="Y17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="Z17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AA17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AB17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AC17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AD17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AE17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AF17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AG17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AH17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AI17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AJ17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AK17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AL17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AM17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AN17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AO17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AP17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AQ17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AR17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AS17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AT17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AU17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AV17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AW17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AX17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AY17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AZ17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BA17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BB17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BC17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BD17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BE17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BF17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BG17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BH17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BI17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BJ17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BK17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BL17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BM17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BN17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BO17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BP17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BQ17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BR17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BS17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BT17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BU17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BV17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BW17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BX17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BY17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BZ17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CA17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CB17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CC17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CD17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CE17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CF17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CG17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CH17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CI17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CJ17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CK17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CL17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CM17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CN17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CO17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CP17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CQ17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CR17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CS17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CT17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CU17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CV17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CW17" s="2">
-        <v>2.5</v>
+        <v>0.3389830508474576</v>
       </c>
     </row>
     <row r="18" spans="2:101">
@@ -1725,314 +1716,314 @@
     </row>
     <row r="19" spans="2:101">
       <c r="B19" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="2:101">
       <c r="B20" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
     </row>
     <row r="21" spans="2:101">
       <c r="B21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="C21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="D21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="E21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="F21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="G21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="H21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="I21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="J21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="K21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="L21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="M21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="N21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="O21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="P21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="Q21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="R21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="S21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="T21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="U21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="V21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="W21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="X21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="Y21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="Z21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AA21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AB21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AC21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AD21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AE21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AF21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AG21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AH21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AI21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AJ21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AK21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AL21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AM21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AN21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AO21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AP21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AQ21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AR21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AS21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AT21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AU21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AV21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AW21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AX21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AY21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AZ21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BA21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BB21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BC21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BD21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BE21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BF21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BG21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BH21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BI21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BJ21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BK21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BL21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BM21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BN21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BO21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BP21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BQ21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BR21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BS21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BT21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BU21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BV21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BW21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BX21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BY21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="BZ21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CA21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CB21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CC21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CD21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CE21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CF21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CG21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CH21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CI21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CJ21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CK21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CL21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CM21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CN21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CO21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CP21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CQ21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CR21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CS21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CT21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CU21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CV21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="CW21" s="2">
-        <v>0.625</v>
+        <v>2.033898305084746</v>
       </c>
     </row>
     <row r="22" spans="2:101">
@@ -2047,309 +2038,309 @@
     </row>
     <row r="24" spans="2:101">
       <c r="B24" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
     </row>
     <row r="25" spans="2:101">
       <c r="B25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="D25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="E25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="F25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="G25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="H25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="I25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="J25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="K25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="M25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="N25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="O25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="P25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="Q25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="R25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="S25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="T25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="U25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="V25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="W25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="X25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="Y25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="Z25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AA25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AB25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AC25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AD25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AE25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AF25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AG25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AH25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AI25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AJ25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AK25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AL25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AM25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AN25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AO25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AP25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AQ25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AR25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AS25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AT25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AU25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AV25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AW25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AX25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AY25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AZ25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BA25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BB25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BC25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BD25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BE25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BF25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BG25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BH25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BI25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BJ25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BK25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BL25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BM25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BN25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BO25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BP25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BQ25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BR25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BS25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BT25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BU25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BV25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BW25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BX25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BY25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BZ25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CA25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CB25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CC25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CD25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CE25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CF25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CG25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CH25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CI25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CJ25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CK25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CL25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CM25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CN25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CO25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CP25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CQ25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CR25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CS25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CT25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CU25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CV25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CW25" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
     </row>
     <row r="26" spans="2:101">
@@ -2359,314 +2350,314 @@
     </row>
     <row r="27" spans="2:101">
       <c r="B27" s="2">
-        <v>3</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="2:101">
       <c r="B28" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
     </row>
     <row r="29" spans="2:101">
       <c r="B29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="C29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="D29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="E29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="F29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="G29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="H29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="I29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="J29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="K29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="L29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="M29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="N29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="O29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="P29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="Q29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="R29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="S29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="T29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="U29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="V29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="W29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="X29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="Y29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="Z29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AA29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AB29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AC29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AD29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AE29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AF29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AG29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AH29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AI29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AJ29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AK29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AL29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AM29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AN29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AO29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AP29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AQ29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AR29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AS29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AT29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AU29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AV29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AW29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AX29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AY29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="AZ29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BA29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BB29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BC29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BD29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BE29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BF29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BG29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BH29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BI29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BJ29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BK29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BL29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BM29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BN29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BO29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BP29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BQ29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BR29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BS29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BT29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BU29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BV29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BW29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BX29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BY29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="BZ29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CA29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CB29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CC29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CD29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CE29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CF29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CG29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CH29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CI29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CJ29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CK29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CL29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CM29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CN29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CO29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CP29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CQ29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CR29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CS29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CT29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CU29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CV29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
       <c r="CW29" s="2">
-        <v>0.9375</v>
+        <v>51.1864406779661</v>
       </c>
     </row>
     <row r="30" spans="2:101">
@@ -2676,314 +2667,314 @@
     </row>
     <row r="31" spans="2:101">
       <c r="B31" s="2">
-        <v>85</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="2:101">
       <c r="B32" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
     </row>
     <row r="33" spans="2:101">
       <c r="B33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="C33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="D33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="E33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="F33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="G33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="H33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="I33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="J33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="K33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="L33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="M33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="N33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="O33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="P33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="Q33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="R33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="S33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="T33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="U33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="V33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="W33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="X33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="Y33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="Z33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AA33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AB33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AC33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AD33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AE33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AF33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AG33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AH33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AI33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AJ33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AK33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AL33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AM33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AN33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AO33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AP33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AQ33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AR33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AS33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AT33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AU33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AV33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AW33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AX33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AY33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="AZ33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BA33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BB33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BC33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BD33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BE33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BF33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BG33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BH33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BI33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BJ33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BK33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BL33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BM33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BN33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BO33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BP33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BQ33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BR33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BS33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BT33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BU33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BV33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BW33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BX33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BY33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="BZ33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CA33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CB33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CC33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CD33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CE33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CF33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CG33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CH33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CI33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CJ33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CK33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CL33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CM33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CN33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CO33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CP33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CQ33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CR33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CS33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CT33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CU33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CV33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
       <c r="CW33" s="2">
-        <v>26.5625</v>
+        <v>10.84745762711864</v>
       </c>
     </row>
     <row r="34" spans="2:101">
@@ -2993,314 +2984,314 @@
     </row>
     <row r="35" spans="2:101">
       <c r="B35" s="2">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="2:101">
       <c r="B36" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
     </row>
     <row r="37" spans="2:101">
       <c r="B37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="C37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="D37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="E37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="F37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="G37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="H37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="I37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="J37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="K37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="L37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="M37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="N37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="O37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="P37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="Q37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="R37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="S37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="T37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="U37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="V37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="W37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="X37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="Y37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="Z37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AA37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AB37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AC37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AD37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AE37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AF37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AG37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AH37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AI37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AJ37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AK37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AL37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AM37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AN37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AO37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AP37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AQ37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AR37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AS37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AT37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AU37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AV37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AW37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AX37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AY37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="AZ37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BA37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BB37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BC37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BD37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BE37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BF37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BG37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BH37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BI37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BJ37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BK37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BL37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BM37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BN37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BO37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BP37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BQ37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BR37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BS37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BT37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BU37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BV37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BW37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BX37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BY37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="BZ37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CA37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CB37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CC37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CD37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CE37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CF37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CG37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CH37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CI37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CJ37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CK37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CL37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CM37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CN37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CO37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CP37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CQ37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CR37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CS37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CT37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CU37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CV37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
       <c r="CW37" s="2">
-        <v>12.1875</v>
+        <v>6.440677966101695</v>
       </c>
     </row>
     <row r="38" spans="2:101">
@@ -3310,314 +3301,314 @@
     </row>
     <row r="39" spans="2:101">
       <c r="B39" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="2:101">
       <c r="B40" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
     </row>
     <row r="41" spans="2:101">
       <c r="B41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="C41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="D41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="E41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="F41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="G41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="H41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="I41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="J41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="K41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="L41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="M41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="N41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="O41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="P41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="Q41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="R41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="S41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="T41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="U41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="V41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="W41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="X41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="Y41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="Z41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AA41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AB41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AC41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AD41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AE41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AF41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AG41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AH41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AI41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AJ41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AK41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AL41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AM41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AN41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AO41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AP41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AQ41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AR41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AS41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AT41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AU41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AV41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AW41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AX41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AY41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AZ41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BA41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BB41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BC41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BD41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BE41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BF41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BG41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BH41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BI41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BJ41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BK41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BL41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BM41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BN41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BO41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BP41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BQ41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BR41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BS41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BT41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BU41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BV41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BW41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BX41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BY41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BZ41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CA41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CB41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CC41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CD41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CE41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CF41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CG41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CH41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CI41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CJ41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CK41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CL41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CM41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CN41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CO41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CP41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CQ41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CR41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CS41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CT41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CU41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CV41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CW41" s="2">
-        <v>0.9375</v>
+        <v>3.389830508474576</v>
       </c>
     </row>
     <row r="42" spans="2:101">
@@ -3627,314 +3618,314 @@
     </row>
     <row r="43" spans="2:101">
       <c r="B43" s="2">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="2:101">
       <c r="B44" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
     </row>
     <row r="45" spans="2:101">
       <c r="B45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="C45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="D45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="E45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="F45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="G45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="H45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="I45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="J45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="K45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="L45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="M45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="N45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="O45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="P45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="Q45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="R45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="S45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="T45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="U45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="V45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="W45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="X45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="Y45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="Z45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AA45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AB45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AC45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AD45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AE45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AF45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AG45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AH45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AI45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AJ45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AK45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AL45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AM45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AN45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AO45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AP45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AQ45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AR45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AS45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AT45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AU45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AV45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AW45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AX45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AY45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AZ45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BA45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BB45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BC45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BD45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BE45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BF45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BG45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BH45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BI45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BJ45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BK45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BL45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BM45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BN45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BO45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BP45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BQ45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BR45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BS45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BT45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BU45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BV45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BW45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BX45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BY45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BZ45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CA45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CB45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CC45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CD45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CE45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CF45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CG45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CH45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CI45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CJ45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CK45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CL45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CM45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CN45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CO45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CP45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CQ45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CR45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CS45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CT45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CU45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CV45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CW45" s="2">
-        <v>7.1875</v>
+        <v>2.711864406779661</v>
       </c>
     </row>
     <row r="46" spans="2:101">
@@ -3944,314 +3935,314 @@
     </row>
     <row r="47" spans="2:101">
       <c r="B47" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="2:101">
       <c r="B48" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
     </row>
     <row r="49" spans="2:101">
       <c r="B49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="C49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="D49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="E49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="F49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="G49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="H49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="I49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="J49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="K49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="L49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="M49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="N49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="O49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="P49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="Q49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="R49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="S49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="T49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="U49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="V49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="W49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="X49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="Y49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="Z49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AA49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AB49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AC49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AD49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AE49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AF49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AG49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AH49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AI49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AJ49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AK49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AL49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AM49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AN49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AO49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AP49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AQ49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AR49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AS49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AT49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AU49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AV49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AW49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AX49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AY49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AZ49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BA49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BB49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BC49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BD49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BE49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BF49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BG49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BH49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BI49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BJ49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BK49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BL49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BM49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BN49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BO49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BP49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BQ49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BR49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BS49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BT49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BU49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BV49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BW49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BX49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BY49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BZ49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CA49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CB49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CC49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CD49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CE49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CF49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CG49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CH49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CI49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CJ49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CK49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CL49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CM49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CN49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CO49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CP49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CQ49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CR49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CS49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CT49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CU49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CV49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CW49" s="2">
-        <v>1.25</v>
+        <v>1.694915254237288</v>
       </c>
     </row>
     <row r="50" spans="2:101">
@@ -4261,314 +4252,314 @@
     </row>
     <row r="51" spans="2:101">
       <c r="B51" s="2">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="2:101">
       <c r="B52" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
     </row>
     <row r="53" spans="2:101">
       <c r="B53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="D53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="E53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="F53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="G53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="H53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="I53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="J53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="K53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="M53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="N53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="O53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="P53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="Q53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="R53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="S53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="T53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="U53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="V53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="W53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="X53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="Y53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="Z53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AA53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AB53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AC53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AD53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AE53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AF53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AG53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AH53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AI53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AJ53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AK53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AL53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AM53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AN53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AO53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AP53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AQ53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AR53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AS53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AT53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AU53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AV53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AW53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AX53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AY53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AZ53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BA53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BB53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BC53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BD53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BE53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BF53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BG53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BH53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BI53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BJ53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BK53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BL53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BM53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BN53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BO53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BP53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BQ53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BR53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BS53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BT53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BU53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BV53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BW53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BX53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BY53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BZ53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CA53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CB53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CC53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CD53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CE53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CF53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CG53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CH53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CI53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CJ53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CK53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CL53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CM53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CN53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CO53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CP53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CQ53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CR53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CS53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CT53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CU53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CV53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CW53" s="2">
-        <v>11.875</v>
+        <v>0.3389830508474576</v>
       </c>
     </row>
     <row r="54" spans="2:101">
@@ -4578,314 +4569,314 @@
     </row>
     <row r="55" spans="2:101">
       <c r="B55" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="2:101">
       <c r="B56" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
     </row>
     <row r="57" spans="2:101">
       <c r="B57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="D57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="E57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="F57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="G57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="H57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="I57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="J57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="K57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="M57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="N57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="O57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="P57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="Q57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="R57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="S57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="T57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="U57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="V57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="W57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="X57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="Y57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="Z57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AA57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AB57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AC57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AD57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AE57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AF57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AG57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AH57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AI57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AJ57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AK57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AL57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AM57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AN57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AO57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AP57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AQ57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AR57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AS57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AT57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AU57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AV57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AW57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AX57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AY57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AZ57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BA57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BB57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BC57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BD57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BE57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BF57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BG57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BH57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BI57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BJ57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BK57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BL57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BM57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BN57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BO57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BP57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BQ57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BR57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BS57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BT57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BU57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BV57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BW57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BX57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BY57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BZ57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CA57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CB57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CC57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CD57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CE57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CF57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CG57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CH57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CI57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CJ57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CK57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CL57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CM57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CN57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CO57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CP57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CQ57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CR57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CS57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CT57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CU57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CV57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CW57" s="2">
-        <v>3.75</v>
+        <v>0.3389830508474576</v>
       </c>
     </row>
     <row r="58" spans="2:101">
@@ -4895,314 +4886,314 @@
     </row>
     <row r="59" spans="2:101">
       <c r="B59" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="2:101">
       <c r="B60" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
     </row>
     <row r="61" spans="2:101">
       <c r="B61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="C61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="D61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="E61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="F61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="G61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="H61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="I61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="J61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="K61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="L61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="M61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="N61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="O61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="P61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="Q61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="R61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="S61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="T61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="U61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="V61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="W61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="X61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="Y61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="Z61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AA61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AB61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AC61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AD61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AE61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AF61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AG61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AH61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AI61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AJ61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AK61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AL61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AM61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AN61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AO61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AP61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AQ61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AR61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AS61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AT61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AU61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AV61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AW61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AX61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AY61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AZ61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BA61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BB61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BC61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BD61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BE61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BF61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BG61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BH61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BI61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BJ61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BK61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BL61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BM61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BN61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BO61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BP61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BQ61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BR61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BS61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BT61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BU61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BV61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BW61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BX61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BY61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BZ61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CA61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CB61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CC61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CD61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CE61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CF61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CG61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CH61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CI61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CJ61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CK61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CL61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CM61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CN61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CO61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CP61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CQ61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CR61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CS61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CT61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CU61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CV61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CW61" s="2">
-        <v>0.625</v>
+        <v>3.389830508474576</v>
       </c>
     </row>
     <row r="62" spans="2:101">
@@ -5212,314 +5203,314 @@
     </row>
     <row r="63" spans="2:101">
       <c r="B63" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="2:101">
       <c r="B64" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
     </row>
     <row r="65" spans="2:101">
       <c r="B65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="C65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="D65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="E65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="F65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="G65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="H65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="I65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="J65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="K65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="L65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="M65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="N65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="O65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="P65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="Q65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="R65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="S65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="T65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="U65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="V65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="W65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="X65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="Y65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="Z65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AA65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AB65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AC65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AD65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AE65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AF65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AG65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AH65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AI65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AJ65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AK65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AL65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AM65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AN65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AO65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AP65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AQ65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AR65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AS65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AT65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AU65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AV65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AW65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AX65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AY65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="AZ65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BA65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BB65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BC65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BD65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BE65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BF65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BG65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BH65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BI65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BJ65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BK65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BL65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BM65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BN65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BO65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BP65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BQ65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BR65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BS65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BT65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BU65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BV65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BW65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BX65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BY65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="BZ65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CA65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CB65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CC65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CD65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CE65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CF65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CG65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CH65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CI65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CJ65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CK65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CL65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CM65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CN65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CO65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CP65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CQ65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CR65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CS65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CT65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CU65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CV65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="CW65" s="2">
-        <v>0.3125</v>
+        <v>1.694915254237288</v>
       </c>
     </row>
     <row r="66" spans="2:101">
@@ -5534,309 +5525,309 @@
     </row>
     <row r="68" spans="2:101">
       <c r="B68" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
     </row>
     <row r="69" spans="2:101">
       <c r="B69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="D69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="E69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="F69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="G69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="H69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="I69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="J69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="K69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="M69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="N69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="O69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="P69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="Q69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="R69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="S69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="T69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="U69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="V69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="W69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="X69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="Y69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="Z69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AA69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AB69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AC69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AD69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AE69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AF69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AG69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AH69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AI69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AJ69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AK69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AL69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AM69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AN69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AO69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AP69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AQ69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AR69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AS69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AT69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AU69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AV69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AW69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AX69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AY69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="AZ69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BA69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BB69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BC69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BD69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BE69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BF69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BG69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BH69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BI69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BJ69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BK69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BL69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BM69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BN69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BO69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BP69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BQ69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BR69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BS69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BT69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BU69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BV69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BW69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BX69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BY69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="BZ69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CA69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CB69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CC69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CD69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CE69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CF69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CG69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CH69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CI69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CJ69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CK69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CL69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CM69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CN69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CO69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CP69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CQ69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CR69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CS69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CT69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CU69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CV69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="CW69" s="2">
-        <v>0.3125</v>
+        <v>0.3389830508474576</v>
       </c>
     </row>
     <row r="70" spans="2:101">
@@ -5846,314 +5837,314 @@
     </row>
     <row r="71" spans="2:101">
       <c r="B71" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="2:101">
       <c r="B72" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
     </row>
     <row r="73" spans="2:101">
       <c r="B73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="C73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="D73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="E73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="F73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="G73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="H73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="I73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="J73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="K73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="L73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="M73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="N73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="O73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="P73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="Q73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="R73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="S73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="T73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="U73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="V73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="W73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="X73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="Y73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="Z73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AA73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AB73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AC73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AD73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AE73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AF73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AG73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AH73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AI73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AJ73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AK73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AL73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AM73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AN73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AO73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AP73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AQ73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AR73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AS73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AT73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AU73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AV73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AW73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AX73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AY73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AZ73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BA73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BB73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BC73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BD73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BE73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BF73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BG73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BH73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BI73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BJ73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BK73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BL73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BM73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BN73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BO73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BP73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BQ73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BR73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BS73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BT73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BU73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BV73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BW73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BX73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BY73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="BZ73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CA73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CB73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CC73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CD73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CE73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CF73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CG73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CH73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CI73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CJ73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CK73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CL73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CM73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CN73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CO73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CP73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CQ73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CR73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CS73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CT73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CU73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CV73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="CW73" s="2">
-        <v>0.3125</v>
+        <v>1.016949152542373</v>
       </c>
     </row>
     <row r="74" spans="2:101">
@@ -6163,314 +6154,314 @@
     </row>
     <row r="75" spans="2:101">
       <c r="B75" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="2:101">
       <c r="B76" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
     </row>
     <row r="77" spans="2:101">
       <c r="B77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="C77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="D77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="E77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="F77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="G77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="H77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="I77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="J77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="K77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="L77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="M77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="N77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="O77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="P77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="Q77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="R77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="S77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="T77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="U77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="V77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="W77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="X77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="Y77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="Z77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AA77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AB77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AC77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AD77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AE77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AF77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AG77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AH77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AI77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AJ77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AK77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AL77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AM77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AN77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AO77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AP77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AQ77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AR77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AS77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AT77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AU77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AV77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AW77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AX77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AY77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="AZ77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BA77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BB77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BC77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BD77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BE77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BF77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BG77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BH77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BI77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BJ77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BK77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BL77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BM77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BN77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BO77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BP77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BQ77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BR77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BS77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BT77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BU77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BV77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BW77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BX77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BY77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="BZ77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CA77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CB77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CC77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CD77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CE77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CF77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CG77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CH77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CI77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CJ77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CK77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CL77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CM77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CN77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CO77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CP77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CQ77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CR77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CS77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CT77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CU77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CV77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="CW77" s="2">
-        <v>1.875</v>
+        <v>3.389830508474576</v>
       </c>
     </row>
     <row r="78" spans="2:101">
@@ -6480,1265 +6471,314 @@
     </row>
     <row r="79" spans="2:101">
       <c r="B79" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="2:101">
       <c r="B80" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
     </row>
     <row r="81" spans="2:101">
       <c r="B81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="C81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="D81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="E81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="F81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="G81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="H81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="I81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="J81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="K81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="L81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="M81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="N81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="O81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="P81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="Q81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="R81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="S81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="T81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="U81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="V81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="W81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="X81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="Y81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="Z81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AA81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AB81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AC81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AD81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AE81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AF81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AG81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AH81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AI81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AJ81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AK81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AL81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AM81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AN81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AO81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AP81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AQ81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AR81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AS81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AT81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AU81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AV81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AW81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AX81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AY81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="AZ81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BA81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BB81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BC81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BD81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BE81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BF81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BG81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BH81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BI81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BJ81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BK81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BL81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BM81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BN81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BO81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BP81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BQ81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BR81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BS81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BT81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BU81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BV81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BW81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BX81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BY81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="BZ81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CA81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CB81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CC81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CD81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CE81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CF81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CG81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CH81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CI81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CJ81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CK81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CL81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CM81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CN81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CO81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CP81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CQ81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CR81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CS81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CT81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CU81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CV81" s="2">
-        <v>0.625</v>
+        <v>2.711864406779661</v>
       </c>
       <c r="CW81" s="2">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="82" spans="2:101">
-      <c r="B82" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" spans="2:101">
-      <c r="B83" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="2:101">
-      <c r="B84" s="2">
-        <v>0.9375</v>
-      </c>
-    </row>
-    <row r="85" spans="2:101">
-      <c r="B85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="C85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="D85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="E85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="F85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="G85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="H85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="I85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="J85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="K85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="L85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="M85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="N85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="O85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="P85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="Q85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="R85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="S85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="T85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="U85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="V85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="W85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="X85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="Y85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="Z85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="AA85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="AB85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="AC85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="AD85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="AE85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="AF85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="AG85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="AH85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="AI85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="AJ85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="AK85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="AL85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="AM85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="AN85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="AO85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="AP85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="AQ85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="AR85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="AS85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="AT85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="AU85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="AV85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="AW85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="AX85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="AY85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="AZ85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="BA85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="BB85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="BC85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="BD85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="BE85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="BF85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="BG85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="BH85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="BI85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="BJ85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="BK85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="BL85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="BM85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="BN85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="BO85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="BP85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="BQ85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="BR85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="BS85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="BT85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="BU85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="BV85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="BW85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="BX85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="BY85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="BZ85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="CA85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="CB85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="CC85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="CD85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="CE85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="CF85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="CG85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="CH85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="CI85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="CJ85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="CK85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="CL85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="CM85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="CN85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="CO85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="CP85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="CQ85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="CR85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="CS85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="CT85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="CU85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="CV85" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="CW85" s="2">
-        <v>0.9375</v>
-      </c>
-    </row>
-    <row r="86" spans="2:101">
-      <c r="B86" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="87" spans="2:101">
-      <c r="B87" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="2:101">
-      <c r="B88" s="2">
-        <v>2.1875</v>
-      </c>
-    </row>
-    <row r="89" spans="2:101">
-      <c r="B89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="C89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="D89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="E89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="F89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="G89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="H89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="I89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="J89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="K89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="L89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="M89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="N89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="O89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="P89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="Q89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="R89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="S89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="T89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="U89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="V89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="W89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="X89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="Y89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="Z89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="AA89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="AB89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="AC89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="AD89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="AE89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="AF89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="AG89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="AH89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="AI89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="AJ89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="AK89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="AL89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="AM89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="AN89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="AO89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="AP89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="AQ89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="AR89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="AS89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="AT89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="AU89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="AV89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="AW89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="AX89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="AY89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="AZ89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="BA89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="BB89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="BC89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="BD89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="BE89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="BF89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="BG89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="BH89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="BI89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="BJ89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="BK89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="BL89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="BM89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="BN89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="BO89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="BP89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="BQ89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="BR89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="BS89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="BT89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="BU89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="BV89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="BW89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="BX89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="BY89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="BZ89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="CA89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="CB89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="CC89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="CD89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="CE89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="CF89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="CG89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="CH89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="CI89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="CJ89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="CK89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="CL89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="CM89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="CN89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="CO89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="CP89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="CQ89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="CR89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="CS89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="CT89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="CU89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="CV89" s="2">
-        <v>2.1875</v>
-      </c>
-      <c r="CW89" s="2">
-        <v>2.1875</v>
-      </c>
-    </row>
-    <row r="90" spans="2:101">
-      <c r="B90" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="91" spans="2:101">
-      <c r="B91" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="2:101">
-      <c r="B92" s="2">
-        <v>1.875</v>
-      </c>
-    </row>
-    <row r="93" spans="2:101">
-      <c r="B93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="C93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="D93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="E93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="F93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="G93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="H93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="I93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="J93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="K93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="L93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="M93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="N93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="O93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="P93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="Q93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="R93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="S93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="T93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="U93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="V93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="W93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="X93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="Y93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="Z93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="AA93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="AB93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="AC93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="AD93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="AE93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="AF93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="AG93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="AH93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="AI93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="AJ93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="AK93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="AL93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="AM93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="AN93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="AO93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="AP93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="AQ93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="AR93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="AS93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="AT93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="AU93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="AV93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="AW93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="AX93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="AY93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="AZ93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="BA93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="BB93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="BC93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="BD93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="BE93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="BF93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="BG93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="BH93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="BI93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="BJ93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="BK93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="BL93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="BM93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="BN93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="BO93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="BP93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="BQ93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="BR93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="BS93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="BT93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="BU93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="BV93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="BW93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="BX93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="BY93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="BZ93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="CA93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="CB93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="CC93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="CD93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="CE93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="CF93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="CG93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="CH93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="CI93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="CJ93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="CK93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="CL93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="CM93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="CN93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="CO93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="CP93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="CQ93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="CR93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="CS93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="CT93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="CU93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="CV93" s="2">
-        <v>1.875</v>
-      </c>
-      <c r="CW93" s="2">
-        <v>1.875</v>
+        <v>2.711864406779661</v>
       </c>
     </row>
   </sheetData>

--- a/codes/test_shell_output/testPRON_New.xlsx
+++ b/codes/test_shell_output/testPRON_New.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>1 &amp; +ا &amp; 0</t>
-  </si>
-  <si>
-    <t>1 &amp; +ان &amp; 0</t>
   </si>
   <si>
     <t>1 &amp; +ت &amp; 0</t>
@@ -29,6 +26,9 @@
   </si>
   <si>
     <t>1 &amp; +كم &amp; 0</t>
+  </si>
+  <si>
+    <t>1 &amp; +ن &amp; 0</t>
   </si>
   <si>
     <t>1 &amp; +نا &amp; 0</t>
@@ -55,19 +55,25 @@
     <t>1 &amp; +ي &amp; 0</t>
   </si>
   <si>
-    <t>1 &amp; تلك &amp; 0</t>
+    <t>1 &amp; أنا &amp; 0</t>
+  </si>
+  <si>
+    <t>1 &amp; أولئك &amp; 0</t>
   </si>
   <si>
     <t>1 &amp; ذلك &amp; 0</t>
+  </si>
+  <si>
+    <t>1 &amp; نحن &amp; 0</t>
+  </si>
+  <si>
+    <t>1 &amp; هؤلاء &amp; 0</t>
   </si>
   <si>
     <t>1 &amp; هذا &amp; 0</t>
   </si>
   <si>
     <t>1 &amp; هذه &amp; 0</t>
-  </si>
-  <si>
-    <t>1 &amp; هم &amp; 0</t>
   </si>
   <si>
     <t>1 &amp; هو &amp; 0</t>
@@ -435,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:CW81"/>
+  <dimension ref="B2:CW89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -448,314 +454,314 @@
     </row>
     <row r="3" spans="2:101">
       <c r="B3" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:101">
       <c r="B4" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
     </row>
     <row r="5" spans="2:101">
       <c r="B5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="C5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="D5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="E5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="F5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="G5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="H5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="I5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="J5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="K5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="L5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="M5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="N5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="O5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="P5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="Q5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="R5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="S5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="T5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="U5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="V5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="W5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="X5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="Y5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="Z5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AA5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AB5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AC5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AD5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AE5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AF5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AG5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AH5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AI5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AJ5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AK5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AL5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AM5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AN5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AO5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AP5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AQ5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AR5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AS5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AT5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AU5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AV5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AW5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AX5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AY5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="AZ5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BA5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BB5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BC5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BD5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BE5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BF5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BG5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BH5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BI5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BJ5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BK5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BL5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BM5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BN5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BO5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BP5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BQ5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BR5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BS5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BT5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BU5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BV5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BW5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BX5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BY5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="BZ5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CA5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CB5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CC5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CD5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CE5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CF5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CG5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CH5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CI5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CJ5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CK5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CL5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CM5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CN5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CO5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CP5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CQ5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CR5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CS5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CT5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CU5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CV5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="CW5" s="2">
-        <v>0.3389830508474576</v>
+        <v>4.273504273504273</v>
       </c>
     </row>
     <row r="6" spans="2:101">
@@ -765,314 +771,314 @@
     </row>
     <row r="7" spans="2:101">
       <c r="B7" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:101">
       <c r="B8" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
     </row>
     <row r="9" spans="2:101">
       <c r="B9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="C9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="D9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="E9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="F9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="G9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="H9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="I9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="J9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="K9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="L9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="M9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="N9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="O9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="P9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="Q9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="R9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="S9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="T9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="U9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="V9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="W9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="X9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="Y9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="Z9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AA9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AB9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AC9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AD9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AE9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AF9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AG9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AH9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AI9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AJ9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AK9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AL9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AM9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AN9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AO9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AP9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AQ9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AR9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AS9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AT9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AU9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AV9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AW9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AX9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AY9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="AZ9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BA9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BB9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BC9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BD9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BE9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BF9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BG9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BH9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BI9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BJ9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BK9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BL9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BM9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BN9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BO9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BP9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BQ9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BR9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BS9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BT9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BU9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BV9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BW9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BX9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BY9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="BZ9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CA9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CB9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CC9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CD9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CE9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CF9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CG9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CH9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CI9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CJ9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CK9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CL9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CM9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CN9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CO9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CP9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CQ9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CR9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CS9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CT9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CU9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CV9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="CW9" s="2">
-        <v>0.6779661016949152</v>
+        <v>5.982905982905983</v>
       </c>
     </row>
     <row r="10" spans="2:101">
@@ -1082,314 +1088,314 @@
     </row>
     <row r="11" spans="2:101">
       <c r="B11" s="2">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="2:101">
       <c r="B12" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
     </row>
     <row r="13" spans="2:101">
       <c r="B13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="C13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="D13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="E13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="F13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="G13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="H13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="I13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="J13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="K13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="L13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="M13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="N13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="O13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="P13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="Q13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="R13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="S13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="T13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="U13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="V13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="W13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="X13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="Y13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="Z13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AA13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AB13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AC13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AD13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AE13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AF13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AG13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AH13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AI13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AJ13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AK13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AL13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AM13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AN13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AO13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AP13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AQ13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AR13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AS13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AT13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AU13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AV13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AW13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AX13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AY13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AZ13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BA13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BB13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BC13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BD13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BE13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BF13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BG13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BH13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BI13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BJ13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BK13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BL13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BM13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BN13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BO13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BP13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BQ13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BR13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BS13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BT13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BU13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BV13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BW13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BX13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BY13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BZ13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CA13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CB13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CC13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CD13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CE13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CF13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CG13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CH13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CI13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CJ13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CK13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CL13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CM13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CN13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CO13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CP13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CQ13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CR13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CS13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CT13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CU13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CV13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CW13" s="2">
-        <v>6.779661016949152</v>
+        <v>5.128205128205129</v>
       </c>
     </row>
     <row r="14" spans="2:101">
@@ -1399,314 +1405,314 @@
     </row>
     <row r="15" spans="2:101">
       <c r="B15" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="2:101">
       <c r="B16" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
     </row>
     <row r="17" spans="2:101">
       <c r="B17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="C17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="D17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="E17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="F17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="G17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="H17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="I17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="J17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="K17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="L17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="M17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="N17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="O17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="P17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="Q17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="R17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="S17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="T17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="U17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="V17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="W17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="X17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="Y17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="Z17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AA17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AB17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AC17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AD17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AE17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AF17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AG17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AH17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AI17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AJ17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AK17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AL17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AM17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AN17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AO17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AP17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AQ17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AR17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AS17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AT17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AU17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AV17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AW17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AX17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AY17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="AZ17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BA17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BB17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BC17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BD17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BE17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BF17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BG17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BH17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BI17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BJ17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BK17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BL17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BM17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BN17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BO17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BP17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BQ17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BR17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BS17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BT17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BU17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BV17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BW17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BX17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BY17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="BZ17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CA17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CB17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CC17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CD17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CE17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CF17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CG17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CH17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CI17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CJ17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CK17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CL17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CM17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CN17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CO17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CP17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CQ17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CR17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CS17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CT17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CU17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CV17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="CW17" s="2">
-        <v>0.3389830508474576</v>
+        <v>3.846153846153846</v>
       </c>
     </row>
     <row r="18" spans="2:101">
@@ -1716,314 +1722,314 @@
     </row>
     <row r="19" spans="2:101">
       <c r="B19" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:101">
       <c r="B20" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
     </row>
     <row r="21" spans="2:101">
       <c r="B21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="C21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="D21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="E21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="F21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="G21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="H21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="I21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="J21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="K21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="L21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="M21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="N21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="O21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="P21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="Q21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="R21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="S21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="T21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="U21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="V21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="W21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="X21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="Y21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="Z21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AA21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AB21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AC21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AD21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AE21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AF21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AG21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AH21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AI21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AJ21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AK21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AL21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AM21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AN21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AO21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AP21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AQ21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AR21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AS21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AT21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AU21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AV21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AW21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AX21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AY21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AZ21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BA21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BB21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BC21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BD21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BE21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BF21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BG21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BH21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BI21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BJ21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BK21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BL21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BM21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BN21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BO21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BP21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BQ21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BR21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BS21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BT21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BU21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BV21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BW21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BX21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BY21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BZ21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CA21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CB21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CC21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CD21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CE21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CF21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CG21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CH21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CI21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CJ21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CK21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CL21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CM21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CN21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CO21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CP21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CQ21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CR21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CS21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CT21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CU21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CV21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CW21" s="2">
-        <v>2.033898305084746</v>
+        <v>0.8547008547008547</v>
       </c>
     </row>
     <row r="22" spans="2:101">
@@ -2033,314 +2039,314 @@
     </row>
     <row r="23" spans="2:101">
       <c r="B23" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="2:101">
       <c r="B24" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
     </row>
     <row r="25" spans="2:101">
       <c r="B25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="C25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="D25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="E25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="F25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="G25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="H25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="I25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="J25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="K25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="L25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="M25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="N25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="O25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="P25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="Q25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="R25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="S25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="T25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="U25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="V25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="W25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="X25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="Y25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="Z25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AA25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AB25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AC25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AD25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AE25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AF25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AG25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AH25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AI25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AJ25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AK25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AL25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AM25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AN25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AO25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AP25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AQ25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AR25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AS25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AT25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AU25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AV25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AW25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AX25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AY25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="AZ25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BA25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BB25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BC25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BD25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BE25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BF25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BG25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BH25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BI25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BJ25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BK25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BL25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BM25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BN25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BO25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BP25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BQ25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BR25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BS25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BT25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BU25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BV25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BW25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BX25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BY25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="BZ25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CA25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CB25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CC25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CD25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CE25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CF25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CG25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CH25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CI25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CJ25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CK25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CL25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CM25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CN25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CO25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CP25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CQ25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CR25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CS25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CT25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CU25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CV25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="CW25" s="2">
-        <v>0.3389830508474576</v>
+        <v>8.547008547008547</v>
       </c>
     </row>
     <row r="26" spans="2:101">
@@ -2350,314 +2356,314 @@
     </row>
     <row r="27" spans="2:101">
       <c r="B27" s="2">
-        <v>151</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="2:101">
       <c r="B28" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
     </row>
     <row r="29" spans="2:101">
       <c r="B29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="C29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="D29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="E29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="F29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="G29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="H29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="I29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="J29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="K29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="L29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="M29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="N29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="O29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="P29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="Q29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="R29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="S29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="T29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="U29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="V29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="W29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="X29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="Y29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="Z29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AA29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AB29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AC29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AD29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AE29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AF29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AG29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AH29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AI29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AJ29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AK29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AL29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AM29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AN29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AO29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AP29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AQ29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AR29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AS29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AT29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AU29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AV29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AW29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AX29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AY29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="AZ29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BA29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BB29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BC29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BD29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BE29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BF29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BG29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BH29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BI29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BJ29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BK29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BL29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BM29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BN29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BO29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BP29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BQ29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BR29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BS29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BT29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BU29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BV29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BW29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BX29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BY29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="BZ29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CA29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CB29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CC29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CD29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CE29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CF29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CG29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CH29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CI29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CJ29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CK29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CL29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CM29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CN29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CO29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CP29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CQ29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CR29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CS29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CT29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CU29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CV29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="CW29" s="2">
-        <v>51.1864406779661</v>
+        <v>14.52991452991453</v>
       </c>
     </row>
     <row r="30" spans="2:101">
@@ -2667,314 +2673,314 @@
     </row>
     <row r="31" spans="2:101">
       <c r="B31" s="2">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="2:101">
       <c r="B32" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
     </row>
     <row r="33" spans="2:101">
       <c r="B33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="C33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="D33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="E33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="F33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="G33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="H33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="I33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="J33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="K33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="L33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="M33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="N33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="O33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="P33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="Q33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="R33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="S33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="T33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="U33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="V33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="W33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="X33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="Y33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="Z33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AA33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AB33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AC33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AD33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AE33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AF33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AG33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AH33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AI33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AJ33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AK33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AL33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AM33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AN33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AO33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AP33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AQ33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AR33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AS33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AT33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AU33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AV33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AW33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AX33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AY33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="AZ33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BA33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BB33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BC33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BD33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BE33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BF33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BG33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BH33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BI33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BJ33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BK33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BL33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BM33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BN33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BO33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BP33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BQ33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BR33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BS33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BT33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BU33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BV33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BW33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BX33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BY33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="BZ33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CA33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CB33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CC33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CD33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CE33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CF33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CG33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CH33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CI33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CJ33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CK33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CL33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CM33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CN33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CO33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CP33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CQ33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CR33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CS33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CT33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CU33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CV33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="CW33" s="2">
-        <v>10.84745762711864</v>
+        <v>5.128205128205129</v>
       </c>
     </row>
     <row r="34" spans="2:101">
@@ -2984,314 +2990,314 @@
     </row>
     <row r="35" spans="2:101">
       <c r="B35" s="2">
-        <v>19</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="2:101">
       <c r="B36" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
     </row>
     <row r="37" spans="2:101">
       <c r="B37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="C37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="D37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="E37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="F37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="G37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="H37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="I37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="J37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="K37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="L37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="M37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="N37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="O37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="P37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="Q37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="R37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="S37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="T37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="U37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="V37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="W37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="X37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="Y37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="Z37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AA37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AB37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AC37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AD37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AE37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AF37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AG37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AH37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AI37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AJ37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AK37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AL37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AM37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AN37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AO37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AP37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AQ37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AR37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AS37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AT37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AU37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AV37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AW37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AX37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AY37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="AZ37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BA37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BB37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BC37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BD37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BE37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BF37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BG37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BH37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BI37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BJ37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BK37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BL37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BM37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BN37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BO37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BP37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BQ37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BR37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BS37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BT37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BU37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BV37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BW37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BX37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BY37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="BZ37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CA37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CB37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CC37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CD37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CE37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CF37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CG37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CH37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CI37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CJ37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CK37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CL37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CM37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CN37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CO37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CP37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CQ37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CR37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CS37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CT37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CU37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CV37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
       <c r="CW37" s="2">
-        <v>6.440677966101695</v>
+        <v>23.50427350427351</v>
       </c>
     </row>
     <row r="38" spans="2:101">
@@ -3301,314 +3307,314 @@
     </row>
     <row r="39" spans="2:101">
       <c r="B39" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="2:101">
       <c r="B40" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
     </row>
     <row r="41" spans="2:101">
       <c r="B41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="C41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="D41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="E41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="F41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="G41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="H41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="I41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="J41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="K41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="L41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="M41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="N41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="O41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="P41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="Q41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="R41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="S41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="T41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="U41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="V41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="W41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="X41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="Y41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="Z41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AA41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AB41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AC41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AD41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AE41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AF41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AG41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AH41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AI41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AJ41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AK41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AL41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AM41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AN41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AO41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AP41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AQ41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AR41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AS41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AT41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AU41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AV41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AW41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AX41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AY41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AZ41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BA41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BB41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BC41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BD41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BE41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BF41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BG41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BH41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BI41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BJ41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BK41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BL41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BM41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BN41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BO41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BP41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BQ41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BR41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BS41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BT41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BU41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BV41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BW41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BX41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BY41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="BZ41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CA41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CB41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CC41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CD41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CE41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CF41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CG41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CH41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CI41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CJ41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CK41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CL41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CM41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CN41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CO41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CP41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CQ41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CR41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CS41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CT41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CU41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CV41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="CW41" s="2">
-        <v>3.389830508474576</v>
+        <v>1.282051282051282</v>
       </c>
     </row>
     <row r="42" spans="2:101">
@@ -3618,314 +3624,314 @@
     </row>
     <row r="43" spans="2:101">
       <c r="B43" s="2">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="2:101">
       <c r="B44" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
     </row>
     <row r="45" spans="2:101">
       <c r="B45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="C45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="D45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="E45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="F45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="G45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="H45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="I45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="J45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="K45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="L45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="M45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="N45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="O45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="P45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="Q45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="R45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="S45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="T45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="U45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="V45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="W45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="X45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="Y45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="Z45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AA45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AB45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AC45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AD45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AE45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AF45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AG45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AH45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AI45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AJ45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AK45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AL45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AM45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AN45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AO45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AP45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AQ45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AR45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AS45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AT45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AU45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AV45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AW45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AX45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AY45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="AZ45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BA45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BB45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BC45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BD45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BE45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BF45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BG45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BH45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BI45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BJ45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BK45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BL45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BM45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BN45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BO45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BP45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BQ45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BR45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BS45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BT45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BU45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BV45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BW45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BX45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BY45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="BZ45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CA45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CB45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CC45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CD45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CE45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CF45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CG45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CH45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CI45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CJ45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CK45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CL45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CM45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CN45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CO45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CP45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CQ45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CR45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CS45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CT45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CU45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CV45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="CW45" s="2">
-        <v>2.711864406779661</v>
+        <v>11.53846153846154</v>
       </c>
     </row>
     <row r="46" spans="2:101">
@@ -3935,314 +3941,314 @@
     </row>
     <row r="47" spans="2:101">
       <c r="B47" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="2:101">
       <c r="B48" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
     </row>
     <row r="49" spans="2:101">
       <c r="B49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="C49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="D49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="E49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="F49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="G49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="H49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="I49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="J49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="K49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="L49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="M49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="N49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="O49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="P49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="Q49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="R49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="S49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="T49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="U49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="V49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="W49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="X49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="Y49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="Z49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AA49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AB49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AC49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AD49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AE49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AF49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AG49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AH49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AI49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AJ49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AK49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AL49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AM49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AN49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AO49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AP49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AQ49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AR49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AS49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AT49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AU49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AV49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AW49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AX49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AY49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="AZ49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BA49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BB49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BC49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BD49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BE49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BF49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BG49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BH49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BI49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BJ49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BK49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BL49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BM49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BN49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BO49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BP49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BQ49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BR49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BS49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BT49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BU49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BV49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BW49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BX49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BY49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="BZ49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CA49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CB49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CC49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CD49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CE49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CF49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CG49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CH49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CI49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CJ49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CK49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CL49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CM49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CN49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CO49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CP49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CQ49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CR49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CS49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CT49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CU49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CV49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="CW49" s="2">
-        <v>1.694915254237288</v>
+        <v>4.700854700854701</v>
       </c>
     </row>
     <row r="50" spans="2:101">
@@ -4252,314 +4258,314 @@
     </row>
     <row r="51" spans="2:101">
       <c r="B51" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="2:101">
       <c r="B52" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
     </row>
     <row r="53" spans="2:101">
       <c r="B53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="C53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="D53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="E53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="F53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="G53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="H53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="I53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="J53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="K53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="L53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="M53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="N53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="O53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="P53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="Q53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="R53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="S53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="T53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="U53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="V53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="W53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="X53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="Y53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="Z53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AA53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AB53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AC53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AD53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AE53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AF53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AG53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AH53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AI53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AJ53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AK53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AL53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AM53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AN53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AO53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AP53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AQ53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AR53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AS53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AT53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AU53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AV53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AW53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AX53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AY53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="AZ53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BA53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BB53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BC53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BD53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BE53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BF53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BG53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BH53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BI53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BJ53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BK53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BL53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BM53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BN53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BO53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BP53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BQ53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BR53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BS53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BT53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BU53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BV53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BW53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BX53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BY53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="BZ53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CA53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CB53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CC53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CD53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CE53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CF53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CG53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CH53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CI53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CJ53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CK53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CL53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CM53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CN53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CO53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CP53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CQ53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CR53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CS53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CT53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CU53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CV53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
       <c r="CW53" s="2">
-        <v>0.3389830508474576</v>
+        <v>2.991452991452991</v>
       </c>
     </row>
     <row r="54" spans="2:101">
@@ -4569,314 +4575,314 @@
     </row>
     <row r="55" spans="2:101">
       <c r="B55" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="2:101">
       <c r="B56" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
     </row>
     <row r="57" spans="2:101">
       <c r="B57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="C57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="D57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="E57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="F57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="G57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="H57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="I57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="J57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="K57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="L57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="M57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="N57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="O57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="P57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="Q57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="R57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="S57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="T57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="U57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="V57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="W57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="X57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="Y57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="Z57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AA57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AB57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AC57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AD57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AE57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AF57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AG57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AH57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AI57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AJ57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AK57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AL57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AM57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AN57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AO57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AP57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AQ57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AR57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AS57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AT57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AU57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AV57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AW57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AX57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AY57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AZ57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BA57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BB57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BC57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BD57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BE57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BF57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BG57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BH57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BI57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BJ57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BK57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BL57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BM57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BN57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BO57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BP57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BQ57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BR57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BS57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BT57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BU57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BV57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BW57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BX57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BY57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BZ57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CA57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CB57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CC57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CD57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CE57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CF57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CG57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CH57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CI57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CJ57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CK57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CL57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CM57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CN57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CO57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CP57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CQ57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CR57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CS57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CT57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CU57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CV57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CW57" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
     </row>
     <row r="58" spans="2:101">
@@ -4886,314 +4892,314 @@
     </row>
     <row r="59" spans="2:101">
       <c r="B59" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="2:101">
       <c r="B60" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
     </row>
     <row r="61" spans="2:101">
       <c r="B61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="C61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="D61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="E61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="F61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="G61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="H61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="I61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="J61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="K61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="L61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="M61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="N61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="O61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="P61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="Q61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="R61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="S61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="T61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="U61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="V61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="W61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="X61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="Y61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="Z61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AA61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AB61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AC61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AD61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AE61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AF61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AG61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AH61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AI61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AJ61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AK61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AL61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AM61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AN61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AO61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AP61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AQ61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AR61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AS61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AT61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AU61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AV61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AW61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AX61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AY61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AZ61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BA61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BB61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BC61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BD61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BE61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BF61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BG61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BH61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BI61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BJ61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BK61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BL61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BM61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BN61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BO61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BP61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BQ61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BR61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BS61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BT61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BU61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BV61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BW61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BX61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BY61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BZ61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CA61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CB61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CC61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CD61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CE61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CF61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CG61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CH61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CI61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CJ61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CK61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CL61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CM61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CN61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CO61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CP61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CQ61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CR61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CS61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CT61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CU61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CV61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CW61" s="2">
-        <v>3.389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
     </row>
     <row r="62" spans="2:101">
@@ -5203,314 +5209,314 @@
     </row>
     <row r="63" spans="2:101">
       <c r="B63" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="2:101">
       <c r="B64" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
     </row>
     <row r="65" spans="2:101">
       <c r="B65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="C65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="D65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="E65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="F65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="G65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="H65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="I65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="J65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="K65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="L65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="M65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="N65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="O65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="P65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="Q65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="R65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="S65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="T65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="U65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="V65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="W65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="X65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="Y65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="Z65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AA65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AB65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AC65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AD65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AE65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AF65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AG65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AH65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AI65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AJ65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AK65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AL65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AM65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AN65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AO65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AP65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AQ65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AR65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AS65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AT65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AU65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AV65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AW65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AX65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AY65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AZ65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BA65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BB65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BC65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BD65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BE65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BF65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BG65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BH65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BI65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BJ65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BK65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BL65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BM65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BN65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BO65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BP65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BQ65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BR65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BS65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BT65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BU65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BV65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BW65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BX65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BY65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BZ65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CA65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CB65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CC65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CD65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CE65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CF65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CG65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CH65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CI65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CJ65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CK65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CL65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CM65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CN65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CO65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CP65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CQ65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CR65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CS65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CT65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CU65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CV65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CW65" s="2">
-        <v>1.694915254237288</v>
+        <v>0.8547008547008547</v>
       </c>
     </row>
     <row r="66" spans="2:101">
@@ -5525,309 +5531,309 @@
     </row>
     <row r="68" spans="2:101">
       <c r="B68" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
     </row>
     <row r="69" spans="2:101">
       <c r="B69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="C69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="D69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="E69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="F69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="G69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="H69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="I69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="J69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="K69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="L69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="M69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="N69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="O69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="P69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="Q69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="R69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="S69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="T69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="U69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="V69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="W69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="X69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="Y69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="Z69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AA69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AB69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AC69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AD69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AE69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AF69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AG69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AH69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AI69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AJ69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AK69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AL69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AM69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AN69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AO69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AP69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AQ69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AR69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AS69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AT69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AU69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AV69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AW69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AX69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AY69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AZ69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BA69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BB69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BC69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BD69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BE69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BF69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BG69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BH69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BI69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BJ69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BK69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BL69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BM69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BN69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BO69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BP69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BQ69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BR69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BS69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BT69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BU69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BV69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BW69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BX69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BY69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BZ69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CA69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CB69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CC69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CD69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CE69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CF69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CG69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CH69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CI69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CJ69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CK69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CL69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CM69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CN69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CO69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CP69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CQ69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CR69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CS69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CT69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CU69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CV69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CW69" s="2">
-        <v>0.3389830508474576</v>
+        <v>0.4273504273504273</v>
       </c>
     </row>
     <row r="70" spans="2:101">
@@ -5837,314 +5843,314 @@
     </row>
     <row r="71" spans="2:101">
       <c r="B71" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="2:101">
       <c r="B72" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
     </row>
     <row r="73" spans="2:101">
       <c r="B73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="C73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="D73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="E73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="F73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="G73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="H73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="I73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="J73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="K73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="L73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="M73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="N73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="O73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="P73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="Q73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="R73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="S73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="T73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="U73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="V73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="W73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="X73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="Y73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="Z73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AA73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AB73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AC73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AD73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AE73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AF73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AG73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AH73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AI73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AJ73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AK73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AL73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AM73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AN73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AO73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AP73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AQ73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AR73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AS73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AT73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AU73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AV73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AW73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AX73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AY73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="AZ73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BA73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BB73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BC73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BD73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BE73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BF73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BG73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BH73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BI73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BJ73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BK73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BL73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BM73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BN73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BO73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BP73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BQ73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BR73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BS73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BT73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BU73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BV73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BW73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BX73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BY73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="BZ73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CA73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CB73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CC73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CD73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CE73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CF73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CG73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CH73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CI73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CJ73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CK73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CL73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CM73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CN73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CO73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CP73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CQ73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CR73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CS73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CT73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CU73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CV73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="CW73" s="2">
-        <v>1.016949152542373</v>
+        <v>0.4273504273504273</v>
       </c>
     </row>
     <row r="74" spans="2:101">
@@ -6154,314 +6160,314 @@
     </row>
     <row r="75" spans="2:101">
       <c r="B75" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="2:101">
       <c r="B76" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
     </row>
     <row r="77" spans="2:101">
       <c r="B77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="C77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="D77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="E77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="F77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="G77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="H77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="I77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="J77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="K77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="L77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="M77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="N77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="O77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="P77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="Q77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="R77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="S77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="T77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="U77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="V77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="W77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="X77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="Y77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="Z77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AA77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AB77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AC77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AD77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AE77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AF77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AG77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AH77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AI77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AJ77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AK77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AL77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AM77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AN77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AO77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AP77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AQ77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AR77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AS77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AT77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AU77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AV77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AW77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AX77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AY77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AZ77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BA77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BB77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BC77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BD77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BE77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BF77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BG77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BH77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BI77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BJ77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BK77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BL77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BM77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BN77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BO77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BP77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BQ77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BR77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BS77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BT77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BU77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BV77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BW77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BX77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BY77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BZ77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CA77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CB77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CC77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CD77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CE77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CF77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CG77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CH77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CI77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CJ77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CK77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CL77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CM77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CN77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CO77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CP77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CQ77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CR77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CS77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CT77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CU77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CV77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CW77" s="2">
-        <v>3.389830508474576</v>
+        <v>0.8547008547008547</v>
       </c>
     </row>
     <row r="78" spans="2:101">
@@ -6471,314 +6477,948 @@
     </row>
     <row r="79" spans="2:101">
       <c r="B79" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="2:101">
       <c r="B80" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
     </row>
     <row r="81" spans="2:101">
       <c r="B81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="C81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="D81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="E81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="F81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="G81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="H81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="I81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="J81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="K81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="L81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="M81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="N81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="O81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="P81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="Q81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="R81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="S81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="T81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="U81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="V81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="W81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="X81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="Y81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="Z81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AA81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AB81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AC81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AD81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AE81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AF81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AG81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AH81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AI81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AJ81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AK81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AL81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AM81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AN81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AO81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AP81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AQ81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AR81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AS81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AT81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AU81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AV81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AW81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AX81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AY81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="AZ81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BA81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BB81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BC81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BD81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BE81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BF81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BG81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BH81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BI81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BJ81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BK81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BL81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BM81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BN81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BO81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BP81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BQ81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BR81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BS81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BT81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BU81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BV81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BW81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BX81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BY81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="BZ81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CA81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CB81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CC81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CD81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CE81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CF81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CG81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CH81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CI81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CJ81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CK81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CL81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CM81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CN81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CO81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CP81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CQ81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CR81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CS81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CT81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CU81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CV81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
       </c>
       <c r="CW81" s="2">
-        <v>2.711864406779661</v>
+        <v>0.8547008547008547</v>
+      </c>
+    </row>
+    <row r="82" spans="2:101">
+      <c r="B82" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="2:101">
+      <c r="B83" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="2:101">
+      <c r="B84" s="2">
+        <v>2.564102564102564</v>
+      </c>
+    </row>
+    <row r="85" spans="2:101">
+      <c r="B85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="C85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="D85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="E85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="F85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="G85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="H85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="I85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="J85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="K85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="L85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="M85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="N85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="O85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="P85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="Q85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="R85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="S85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="T85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="U85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="V85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="W85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="X85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="Y85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="Z85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AA85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AB85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AC85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AD85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AE85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AF85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AG85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AH85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AI85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AJ85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AK85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AL85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AM85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AN85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AO85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AP85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AQ85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AR85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AS85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AT85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AU85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AV85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AW85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AX85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AY85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="AZ85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BA85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BB85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BC85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BD85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BE85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BF85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BG85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BH85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BI85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BJ85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BK85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BL85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BM85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BN85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BO85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BP85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BQ85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BR85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BS85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BT85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BU85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BV85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BW85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BX85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BY85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="BZ85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CA85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CB85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CC85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CD85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CE85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CF85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CG85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CH85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CI85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CJ85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CK85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CL85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CM85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CN85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CO85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CP85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CQ85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CR85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CS85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CT85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CU85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CV85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+      <c r="CW85" s="2">
+        <v>2.564102564102564</v>
+      </c>
+    </row>
+    <row r="86" spans="2:101">
+      <c r="B86" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="2:101">
+      <c r="B87" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:101">
+      <c r="B88" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+    </row>
+    <row r="89" spans="2:101">
+      <c r="B89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="C89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="E89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="F89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="G89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="H89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="I89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="J89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="K89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="L89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="M89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="N89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="O89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="P89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="Q89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="R89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="S89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="T89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="U89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="V89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="W89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="X89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="Y89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="Z89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AA89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AB89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AC89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AD89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AE89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AF89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AG89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AH89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AI89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AJ89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AK89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AL89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AM89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AN89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AO89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AP89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AQ89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AR89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AS89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AT89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AU89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AV89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AW89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AX89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AY89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="AZ89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BA89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BB89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BC89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BD89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BE89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BF89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BG89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BH89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BI89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BJ89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BK89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BL89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BM89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BN89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BO89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BP89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BQ89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BR89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BS89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BT89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BU89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BV89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BW89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BX89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BY89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="BZ89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CA89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CB89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CC89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CD89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CE89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CF89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CG89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CH89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CI89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CJ89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CK89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CL89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CM89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CN89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CO89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CP89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CQ89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CR89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CS89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CT89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CU89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CV89" s="2">
+        <v>0.4273504273504273</v>
+      </c>
+      <c r="CW89" s="2">
+        <v>0.4273504273504273</v>
       </c>
     </row>
   </sheetData>
